--- a/Confusion Matrix.xlsx
+++ b/Confusion Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngora\Documents\18500\Jetson\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044B9E00-73C9-45FC-9737-39A2B99297BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364EC7DA-478E-4845-BE4B-07176838E66D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1050" yWindow="3488" windowWidth="16875" windowHeight="10395" xr2:uid="{E4E62485-1CCF-4442-8639-F795B91DA04C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Predicted</t>
   </si>
@@ -67,7 +67,13 @@
     <t>Pred Total</t>
   </si>
   <si>
-    <t>Overall Accuracy</t>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
   </si>
 </sst>
 </file>
@@ -429,13 +435,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98241E6E-23E4-459D-BF57-A4D1E5A049CE}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D1" t="s">
@@ -552,6 +561,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>3</v>
@@ -573,7 +590,7 @@
         <v>None</v>
       </c>
       <c r="H10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
@@ -594,7 +611,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="4"/>
+        <f>F3/F$7</f>
         <v>0</v>
       </c>
       <c r="H11" s="1">
@@ -603,6 +620,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
       <c r="B12" t="str">
         <f t="shared" si="3"/>
         <v>Blob</v>
@@ -665,6 +685,48 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <f>C3/$G3</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="D17">
+        <f>D4/$G4</f>
+        <v>0.75</v>
+      </c>
+      <c r="E17">
+        <f>E5/$G5</f>
+        <v>0.75</v>
+      </c>
+      <c r="F17">
+        <f>F6/$G6</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <f>C3/C7</f>
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="D18">
+        <f>D4/D7</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="E18">
+        <f>E5/E7</f>
+        <v>0.75</v>
+      </c>
+      <c r="F18">
+        <f>F6/F7</f>
         <v>1</v>
       </c>
     </row>
